--- a/Documents/WBS.xlsx
+++ b/Documents/WBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>localhost/OrderSystem</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>localhost</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -448,6 +444,30 @@
     <rPh sb="15" eb="17">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localhost/ordersystem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PrintErrMsg.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PrintNavi.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PrintProducts.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SessionStop.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SessionRun.php</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -692,141 +712,141 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1133,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1145,55 +1165,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="57">
         <v>42456</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="23"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="27">
-        <v>42462</v>
-      </c>
-      <c r="J2" s="23"/>
+      <c r="I2" s="57">
+        <v>42463</v>
+      </c>
+      <c r="J2" s="55"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="23"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1205,59 +1225,59 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="26"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
@@ -1277,16 +1297,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="D9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1303,951 +1323,1119 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
-        <f>COUNTA(E12:E103)</f>
-        <v>31</v>
+        <f>COUNTA(E12:E108)</f>
+        <v>36</v>
       </c>
       <c r="B10" s="9">
-        <f ca="1">COUNTIF(N12:N103, "★")</f>
-        <v>18</v>
+        <f ca="1">COUNTIF(N12:N108, "★")</f>
+        <v>26</v>
       </c>
       <c r="C10" s="9">
-        <f ca="1">COUNTIF(N12:N103, "☆")</f>
-        <v>4</v>
+        <f ca="1">COUNTIF(N12:N108, "☆")</f>
+        <v>0</v>
       </c>
       <c r="D10" s="10">
         <f ca="1">B10 / A10</f>
-        <v>0.58064516129032262</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="N10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23" t="s">
+      <c r="K11" s="55"/>
+      <c r="L11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="23"/>
+      <c r="M11" s="55"/>
       <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="16" t="s">
+      <c r="A12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="13" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="21">
+      <c r="I12" s="17"/>
+      <c r="J12" s="18">
         <v>42442</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21">
+      <c r="K12" s="19"/>
+      <c r="L12" s="18">
         <v>42442</v>
       </c>
-      <c r="M12" s="20"/>
+      <c r="M12" s="19"/>
       <c r="N12" s="5" t="str">
         <f ca="1">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
         <v>★</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="16" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="13" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="21">
+      <c r="I13" s="17"/>
+      <c r="J13" s="18">
         <v>42442</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21">
+      <c r="K13" s="19"/>
+      <c r="L13" s="18">
         <v>42442</v>
       </c>
-      <c r="M13" s="20"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="5" t="str">
-        <f t="shared" ref="N13:N44" ca="1" si="0">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
+        <f t="shared" ref="N13:N49" ca="1" si="0">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
         <v>★</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="16" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="13" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="21">
+      <c r="I14" s="17"/>
+      <c r="J14" s="18">
         <v>42442</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21">
+      <c r="K14" s="19"/>
+      <c r="L14" s="18">
         <v>42442</v>
       </c>
-      <c r="M14" s="20"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="16" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="13" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="21">
+      <c r="I15" s="17"/>
+      <c r="J15" s="18">
         <v>42442</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21">
+      <c r="K15" s="19"/>
+      <c r="L15" s="18">
         <v>42442</v>
       </c>
-      <c r="M15" s="20"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="16" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18">
+        <v>42456</v>
+      </c>
+      <c r="K16" s="58"/>
+      <c r="L16" s="18">
+        <v>42456</v>
+      </c>
+      <c r="M16" s="58"/>
+      <c r="N16" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="13" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="21">
+      <c r="I18" s="17"/>
+      <c r="J18" s="18">
+        <v>42460</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="18">
+        <v>42460</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18">
         <v>42456</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="21">
+      <c r="K21" s="19"/>
+      <c r="L21" s="18">
+        <v>42463</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53">
+        <v>42460</v>
+      </c>
+      <c r="K22" s="54"/>
+      <c r="L22" s="53">
+        <v>42460</v>
+      </c>
+      <c r="M22" s="54"/>
+      <c r="N22" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18">
+        <v>42461</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="18">
+        <v>42464</v>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18">
+        <v>42461</v>
+      </c>
+      <c r="K24" s="19"/>
+      <c r="L24" s="18">
+        <v>42464</v>
+      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18">
+        <v>42461</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="18">
+        <v>42464</v>
+      </c>
+      <c r="M25" s="19"/>
+      <c r="N25" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18">
+        <v>42452</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="18">
+        <v>42452</v>
+      </c>
+      <c r="M26" s="19"/>
+      <c r="N26" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18">
+        <v>42461</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="18">
+        <v>42461</v>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18">
+        <v>42461</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="18">
+        <v>42461</v>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="18">
+        <v>42461</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" s="18">
+        <v>42464</v>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18">
+        <v>42453</v>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="18">
+        <v>42453</v>
+      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18">
+        <v>42462</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="18">
+        <v>42462</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" s="45"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="17"/>
+      <c r="J35" s="18">
+        <v>42462</v>
+      </c>
+      <c r="K35" s="19"/>
+      <c r="L35" s="18">
+        <v>42462</v>
+      </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18">
+        <v>42462</v>
+      </c>
+      <c r="K36" s="19"/>
+      <c r="L36" s="18">
+        <v>42462</v>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18">
+        <v>42462</v>
+      </c>
+      <c r="K37" s="19"/>
+      <c r="L37" s="18">
+        <v>42462</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27">
+        <v>42462</v>
+      </c>
+      <c r="K38" s="28"/>
+      <c r="L38" s="27">
+        <v>42462</v>
+      </c>
+      <c r="M38" s="28"/>
+      <c r="N38" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37">
         <v>42456</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="5" t="str">
+      <c r="K39" s="38"/>
+      <c r="L39" s="37">
+        <v>42456</v>
+      </c>
+      <c r="M39" s="38"/>
+      <c r="N39" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="13" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="21">
-        <v>42460</v>
-      </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21">
-        <v>42460</v>
-      </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="5" t="str">
+      <c r="I40" s="36"/>
+      <c r="J40" s="37">
+        <v>42456</v>
+      </c>
+      <c r="K40" s="38"/>
+      <c r="L40" s="37">
+        <v>42456</v>
+      </c>
+      <c r="M40" s="38"/>
+      <c r="N40" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="13" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="21">
+      <c r="I41" s="36"/>
+      <c r="J41" s="37">
         <v>42456</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21">
+      <c r="K41" s="38"/>
+      <c r="L41" s="37">
         <v>42456</v>
       </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="5" t="str">
+      <c r="M41" s="38"/>
+      <c r="N41" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="33"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="58">
-        <v>42460</v>
-      </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="58">
-        <v>42460</v>
-      </c>
-      <c r="M22" s="42"/>
-      <c r="N22" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>★</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="21">
-        <v>42461</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>☆</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="21">
-        <v>42461</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>☆</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="21">
-        <v>42461</v>
-      </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>☆</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="21">
-        <v>42452</v>
-      </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21">
-        <v>42452</v>
-      </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>★</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="21">
-        <v>42461</v>
-      </c>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21">
-        <v>42461</v>
-      </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>★</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="21">
-        <v>42461</v>
-      </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21">
-        <v>42461</v>
-      </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>★</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="21">
-        <v>42461</v>
-      </c>
-      <c r="K31" s="20"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>☆</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="47"/>
-      <c r="J33" s="48">
-        <v>42453</v>
-      </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="48">
-        <v>42453</v>
-      </c>
-      <c r="M33" s="49"/>
-      <c r="N33" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>★</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="53">
+      <c r="I42" s="36"/>
+      <c r="J42" s="37">
         <v>42456</v>
       </c>
-      <c r="K34" s="54"/>
-      <c r="L34" s="53">
+      <c r="K42" s="38"/>
+      <c r="L42" s="37">
         <v>42456</v>
       </c>
-      <c r="M34" s="54"/>
-      <c r="N34" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>★</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="53">
-        <v>42456</v>
-      </c>
-      <c r="K35" s="54"/>
-      <c r="L35" s="53">
-        <v>42456</v>
-      </c>
-      <c r="M35" s="54"/>
-      <c r="N35" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>★</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="53">
-        <v>42456</v>
-      </c>
-      <c r="K36" s="54"/>
-      <c r="L36" s="53">
-        <v>42456</v>
-      </c>
-      <c r="M36" s="54"/>
-      <c r="N36" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>★</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="26"/>
-      <c r="J37" s="53">
-        <v>42456</v>
-      </c>
-      <c r="K37" s="54"/>
-      <c r="L37" s="53">
-        <v>42456</v>
-      </c>
-      <c r="M37" s="54"/>
-      <c r="N37" s="4" t="str">
+      <c r="M42" s="38"/>
+      <c r="N42" s="4" t="str">
         <f ca="1">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
         <v>★</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="46" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="47"/>
-      <c r="J38" s="48">
+      <c r="I43" s="26"/>
+      <c r="J43" s="27">
         <v>42456</v>
       </c>
-      <c r="K38" s="49"/>
-      <c r="L38" s="48">
+      <c r="K43" s="28"/>
+      <c r="L43" s="27">
         <v>42456</v>
       </c>
-      <c r="M38" s="49"/>
-      <c r="N38" s="8" t="str">
+      <c r="M43" s="28"/>
+      <c r="N43" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="13" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A44" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16" t="s">
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="18">
+        <v>42456</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="L44" s="18">
+        <v>42456</v>
+      </c>
+      <c r="M44" s="19"/>
+      <c r="N44" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A45" s="16"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="21">
-        <v>42456</v>
-      </c>
-      <c r="K39" s="20"/>
-      <c r="L39" s="21">
-        <v>42456</v>
-      </c>
-      <c r="M39" s="20"/>
-      <c r="N39" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>★</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16" t="s">
+      <c r="F45" s="14"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A46" s="16"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="7" t="str">
+      <c r="F46" s="14"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="7" t="str">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A47" s="16"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="7" t="str">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A48" s="16"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="7" t="str">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A49" s="16"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="A38:D38"/>
+  <mergeCells count="186">
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="L37:M37"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A22:D33"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
@@ -2272,81 +2460,73 @@
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="A22:D38"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
     <mergeCell ref="E40:G40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="J40:K40"/>
     <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A41:D41"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A43:D43"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L26:M26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/WBS.xlsx
+++ b/Documents/WBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -738,6 +738,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -759,15 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -777,12 +834,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,57 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25:M25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1165,55 +1165,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="57">
+      <c r="I1" s="27">
         <v>42456</v>
       </c>
-      <c r="J1" s="55"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="55"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="27">
         <v>42463</v>
       </c>
-      <c r="J2" s="55"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1225,59 +1225,59 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="36"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B10" s="9">
         <f ca="1">COUNTIF(N12:N108, "★")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="9">
         <f ca="1">COUNTIF(N12:N108, "☆")</f>
@@ -1336,47 +1336,47 @@
       </c>
       <c r="D10" s="10">
         <f ca="1">B10 / A10</f>
-        <v>0.72222222222222221</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="N10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55" t="s">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55" t="s">
+      <c r="K11" s="23"/>
+      <c r="L11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="55"/>
+      <c r="M11" s="23"/>
       <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1400,10 +1400,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="13" t="s">
         <v>17</v>
       </c>
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="13" t="s">
         <v>18</v>
       </c>
@@ -1454,10 +1454,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="13" t="s">
         <v>19</v>
       </c>
@@ -1481,10 +1481,10 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="13" t="s">
         <v>45</v>
       </c>
@@ -1497,21 +1497,21 @@
       <c r="J16" s="18">
         <v>42456</v>
       </c>
-      <c r="K16" s="58"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="18">
         <v>42456</v>
       </c>
-      <c r="M16" s="58"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="13" t="s">
         <v>46</v>
       </c>
@@ -1529,10 +1529,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="13" t="s">
         <v>47</v>
       </c>
@@ -1556,10 +1556,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="13" t="s">
         <v>48</v>
       </c>
@@ -1577,10 +1577,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="13" t="s">
         <v>21</v>
       </c>
@@ -1598,10 +1598,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="13" t="s">
         <v>6</v>
       </c>
@@ -1625,39 +1625,39 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="48" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53">
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42">
         <v>42460</v>
       </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="53">
+      <c r="K22" s="43"/>
+      <c r="L22" s="42">
         <v>42460</v>
       </c>
-      <c r="M22" s="54"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="13" t="s">
         <v>57</v>
       </c>
@@ -1681,10 +1681,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
@@ -1708,10 +1708,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
@@ -1735,10 +1735,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="13" t="s">
         <v>29</v>
       </c>
@@ -1762,10 +1762,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="13" t="s">
         <v>28</v>
       </c>
@@ -1789,10 +1789,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="13" t="s">
         <v>58</v>
       </c>
@@ -1816,52 +1816,64 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="H29" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="20"/>
+      <c r="J29" s="18">
+        <v>42465</v>
+      </c>
       <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
+      <c r="L29" s="18">
+        <v>42465</v>
+      </c>
       <c r="M29" s="19"/>
       <c r="N29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>★</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="13" t="s">
         <v>59</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+      <c r="H30" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="I30" s="17"/>
-      <c r="J30" s="20"/>
+      <c r="J30" s="18">
+        <v>42465</v>
+      </c>
       <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
+      <c r="L30" s="18">
+        <v>42465</v>
+      </c>
       <c r="M30" s="19"/>
       <c r="N30" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>★</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="13" t="s">
         <v>55</v>
       </c>
@@ -1885,10 +1897,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="13" t="s">
         <v>31</v>
       </c>
@@ -1906,10 +1918,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="13" t="s">
         <v>56</v>
       </c>
@@ -1933,10 +1945,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="13" t="s">
         <v>63</v>
       </c>
@@ -1954,13 +1966,16 @@
         <v>42462</v>
       </c>
       <c r="M34" s="19"/>
-      <c r="N34" s="7"/>
+      <c r="N34" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="45"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="13" t="s">
         <v>64</v>
       </c>
@@ -1984,10 +1999,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="13" t="s">
         <v>65</v>
       </c>
@@ -2011,10 +2026,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="45"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="13" t="s">
         <v>67</v>
       </c>
@@ -2038,172 +2053,172 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="22" t="s">
+      <c r="A38" s="34"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="27">
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="48"/>
+      <c r="J38" s="49">
         <v>42462</v>
       </c>
-      <c r="K38" s="28"/>
-      <c r="L38" s="27">
+      <c r="K38" s="50"/>
+      <c r="L38" s="49">
         <v>42462</v>
       </c>
-      <c r="M38" s="28"/>
+      <c r="M38" s="50"/>
       <c r="N38" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="32" t="s">
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37">
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="54">
         <v>42456</v>
       </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="37">
+      <c r="K39" s="55"/>
+      <c r="L39" s="54">
         <v>42456</v>
       </c>
-      <c r="M39" s="38"/>
+      <c r="M39" s="55"/>
       <c r="N39" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="32" t="s">
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="37">
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="26"/>
+      <c r="J40" s="54">
         <v>42456</v>
       </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="37">
+      <c r="K40" s="55"/>
+      <c r="L40" s="54">
         <v>42456</v>
       </c>
-      <c r="M40" s="38"/>
+      <c r="M40" s="55"/>
       <c r="N40" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="32" t="s">
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37">
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="26"/>
+      <c r="J41" s="54">
         <v>42456</v>
       </c>
-      <c r="K41" s="38"/>
-      <c r="L41" s="37">
+      <c r="K41" s="55"/>
+      <c r="L41" s="54">
         <v>42456</v>
       </c>
-      <c r="M41" s="38"/>
+      <c r="M41" s="55"/>
       <c r="N41" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="32" t="s">
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37">
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="26"/>
+      <c r="J42" s="54">
         <v>42456</v>
       </c>
-      <c r="K42" s="38"/>
-      <c r="L42" s="37">
+      <c r="K42" s="55"/>
+      <c r="L42" s="54">
         <v>42456</v>
       </c>
-      <c r="M42" s="38"/>
+      <c r="M42" s="55"/>
       <c r="N42" s="4" t="str">
         <f ca="1">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
         <v>★</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="22" t="s">
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="26"/>
-      <c r="J43" s="27">
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="48"/>
+      <c r="J43" s="49">
         <v>42456</v>
       </c>
-      <c r="K43" s="28"/>
-      <c r="L43" s="27">
+      <c r="K43" s="50"/>
+      <c r="L43" s="49">
         <v>42456</v>
       </c>
-      <c r="M43" s="28"/>
+      <c r="M43" s="50"/>
       <c r="N43" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
@@ -2341,101 +2356,73 @@
     </row>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="A22:D38"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
@@ -2460,73 +2447,101 @@
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="A22:D38"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/WBS.xlsx
+++ b/Documents/WBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -468,6 +468,26 @@
   </si>
   <si>
     <t>SessionRun.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客IDを自動生成する</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -683,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -732,122 +752,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1165,55 +1191,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="57">
         <v>42456</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="23"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="57">
         <v>42463</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="23"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1225,59 +1251,59 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="26"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
@@ -1324,7 +1350,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <f>COUNTA(E12:E108)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="9">
         <f ca="1">COUNTIF(N12:N108, "★")</f>
@@ -1336,47 +1362,47 @@
       </c>
       <c r="D10" s="10">
         <f ca="1">B10 / A10</f>
-        <v>0.80555555555555558</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="N10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23" t="s">
+      <c r="K11" s="55"/>
+      <c r="L11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="23"/>
+      <c r="M11" s="55"/>
       <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1400,10 +1426,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="13" t="s">
         <v>17</v>
       </c>
@@ -1422,15 +1448,15 @@
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="5" t="str">
-        <f t="shared" ref="N13:N49" ca="1" si="0">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
+        <f t="shared" ref="N13:N59" ca="1" si="0">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
         <v>★</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="13" t="s">
         <v>18</v>
       </c>
@@ -1454,10 +1480,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="13" t="s">
         <v>19</v>
       </c>
@@ -1481,10 +1507,10 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="13" t="s">
         <v>45</v>
       </c>
@@ -1497,21 +1523,21 @@
       <c r="J16" s="18">
         <v>42456</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="18">
         <v>42456</v>
       </c>
-      <c r="M16" s="22"/>
+      <c r="M16" s="58"/>
       <c r="N16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="13" t="s">
         <v>46</v>
       </c>
@@ -1519,9 +1545,9 @@
       <c r="G17" s="15"/>
       <c r="H17" s="16"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
+      <c r="L17" s="47"/>
       <c r="M17" s="19"/>
       <c r="N17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1529,10 +1555,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="13" t="s">
         <v>47</v>
       </c>
@@ -1556,10 +1582,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="13" t="s">
         <v>48</v>
       </c>
@@ -1567,9 +1593,9 @@
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="20"/>
+      <c r="J19" s="47"/>
       <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="19"/>
       <c r="N19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1577,10 +1603,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="13" t="s">
         <v>21</v>
       </c>
@@ -1588,9 +1614,9 @@
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="20"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="19"/>
       <c r="N20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1598,10 +1624,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="13" t="s">
         <v>6</v>
       </c>
@@ -1625,39 +1651,39 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="37" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40" t="s">
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42">
+      <c r="I22" s="52"/>
+      <c r="J22" s="53">
         <v>42460</v>
       </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="42">
+      <c r="K22" s="54"/>
+      <c r="L22" s="53">
         <v>42460</v>
       </c>
-      <c r="M22" s="43"/>
+      <c r="M22" s="54"/>
       <c r="N22" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="13" t="s">
         <v>57</v>
       </c>
@@ -1681,10 +1707,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
@@ -1708,10 +1734,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
@@ -1735,10 +1761,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="13" t="s">
         <v>29</v>
       </c>
@@ -1762,10 +1788,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="13" t="s">
         <v>28</v>
       </c>
@@ -1789,10 +1815,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="13" t="s">
         <v>58</v>
       </c>
@@ -1816,10 +1842,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="13" t="s">
         <v>30</v>
       </c>
@@ -1843,10 +1869,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="13" t="s">
         <v>59</v>
       </c>
@@ -1870,10 +1896,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="13" t="s">
         <v>55</v>
       </c>
@@ -1897,10 +1923,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="13" t="s">
         <v>31</v>
       </c>
@@ -1908,9 +1934,9 @@
       <c r="G32" s="15"/>
       <c r="H32" s="16"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="20"/>
+      <c r="J32" s="47"/>
       <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
+      <c r="L32" s="47"/>
       <c r="M32" s="19"/>
       <c r="N32" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1918,10 +1944,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="13" t="s">
         <v>56</v>
       </c>
@@ -1945,10 +1971,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="13" t="s">
         <v>63</v>
       </c>
@@ -1972,10 +1998,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="13" t="s">
         <v>64</v>
       </c>
@@ -1999,10 +2025,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="13" t="s">
         <v>65</v>
       </c>
@@ -2026,10 +2052,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="13" t="s">
         <v>67</v>
       </c>
@@ -2053,172 +2079,172 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="44" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="47" t="s">
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="48"/>
-      <c r="J38" s="49">
+      <c r="I38" s="25"/>
+      <c r="J38" s="26">
         <v>42462</v>
       </c>
-      <c r="K38" s="50"/>
-      <c r="L38" s="49">
+      <c r="K38" s="27"/>
+      <c r="L38" s="26">
         <v>42462</v>
       </c>
-      <c r="M38" s="50"/>
+      <c r="M38" s="27"/>
       <c r="N38" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="51" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="24" t="s">
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="54">
+      <c r="I39" s="35"/>
+      <c r="J39" s="36">
         <v>42456</v>
       </c>
-      <c r="K39" s="55"/>
-      <c r="L39" s="54">
+      <c r="K39" s="37"/>
+      <c r="L39" s="36">
         <v>42456</v>
       </c>
-      <c r="M39" s="55"/>
+      <c r="M39" s="37"/>
       <c r="N39" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="51" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="24" t="s">
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="54">
+      <c r="I40" s="35"/>
+      <c r="J40" s="36">
         <v>42456</v>
       </c>
-      <c r="K40" s="55"/>
-      <c r="L40" s="54">
+      <c r="K40" s="37"/>
+      <c r="L40" s="36">
         <v>42456</v>
       </c>
-      <c r="M40" s="55"/>
+      <c r="M40" s="37"/>
       <c r="N40" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="51" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="24" t="s">
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="54">
+      <c r="I41" s="35"/>
+      <c r="J41" s="36">
         <v>42456</v>
       </c>
-      <c r="K41" s="55"/>
-      <c r="L41" s="54">
+      <c r="K41" s="37"/>
+      <c r="L41" s="36">
         <v>42456</v>
       </c>
-      <c r="M41" s="55"/>
+      <c r="M41" s="37"/>
       <c r="N41" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="51" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="24" t="s">
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="54">
+      <c r="I42" s="35"/>
+      <c r="J42" s="36">
         <v>42456</v>
       </c>
-      <c r="K42" s="55"/>
-      <c r="L42" s="54">
+      <c r="K42" s="37"/>
+      <c r="L42" s="36">
         <v>42456</v>
       </c>
-      <c r="M42" s="55"/>
+      <c r="M42" s="37"/>
       <c r="N42" s="4" t="str">
         <f ca="1">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
         <v>★</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="44" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="47" t="s">
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="48"/>
-      <c r="J43" s="49">
+      <c r="I43" s="25"/>
+      <c r="J43" s="26">
         <v>42456</v>
       </c>
-      <c r="K43" s="50"/>
-      <c r="L43" s="49">
+      <c r="K43" s="27"/>
+      <c r="L43" s="26">
         <v>42456</v>
       </c>
-      <c r="M43" s="50"/>
+      <c r="M43" s="27"/>
       <c r="N43" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
@@ -2228,8 +2254,8 @@
       <c r="A44" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="17"/>
       <c r="E44" s="13" t="s">
         <v>50</v>
@@ -2255,8 +2281,8 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="16"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="17"/>
       <c r="E45" s="13" t="s">
         <v>51</v>
@@ -2265,9 +2291,9 @@
       <c r="G45" s="15"/>
       <c r="H45" s="16"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="20"/>
+      <c r="J45" s="47"/>
       <c r="K45" s="19"/>
-      <c r="L45" s="20"/>
+      <c r="L45" s="47"/>
       <c r="M45" s="19"/>
       <c r="N45" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2276,8 +2302,8 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="16"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="17"/>
       <c r="E46" s="13" t="s">
         <v>52</v>
@@ -2286,9 +2312,9 @@
       <c r="G46" s="15"/>
       <c r="H46" s="16"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="20"/>
+      <c r="J46" s="47"/>
       <c r="K46" s="19"/>
-      <c r="L46" s="20"/>
+      <c r="L46" s="47"/>
       <c r="M46" s="19"/>
       <c r="N46" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2297,8 +2323,8 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="17"/>
       <c r="E47" s="13" t="s">
         <v>54</v>
@@ -2307,9 +2333,9 @@
       <c r="G47" s="15"/>
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="20"/>
+      <c r="J47" s="47"/>
       <c r="K47" s="19"/>
-      <c r="L47" s="20"/>
+      <c r="L47" s="47"/>
       <c r="M47" s="19"/>
       <c r="N47" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2317,88 +2343,410 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="7" t="str">
+      <c r="A48" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="52"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="17"/>
       <c r="E49" s="13"/>
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="16"/>
       <c r="I49" s="17"/>
-      <c r="J49" s="20"/>
+      <c r="J49" s="47"/>
       <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
+      <c r="L49" s="47"/>
       <c r="M49" s="19"/>
       <c r="N49" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A50" s="16"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A51" s="16"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A52" s="16"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A53" s="16"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A54" s="16"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A55" s="16"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A56" s="16"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A57" s="16"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A58" s="16"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A59" s="16"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="186">
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A39:D39"/>
+  <mergeCells count="236">
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A12:D21"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:K38"/>
@@ -2423,125 +2771,49 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="J26:K26"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A12:D21"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L26:M26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/WBS.xlsx
+++ b/Documents/WBS.xlsx
@@ -732,6 +732,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -740,19 +749,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -776,15 +851,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -794,12 +860,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -814,66 +874,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E49" sqref="E49:G49"/>
     </sheetView>
   </sheetViews>
@@ -1191,55 +1191,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="57">
+      <c r="I1" s="35">
         <v>42456</v>
       </c>
-      <c r="J1" s="55"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="55"/>
+      <c r="M1" s="31"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="35">
         <v>42463</v>
       </c>
-      <c r="J2" s="55"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1251,59 +1251,59 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="35"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
@@ -1369,1208 +1369,1208 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55" t="s">
+      <c r="I11" s="31"/>
+      <c r="J11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55" t="s">
+      <c r="K11" s="31"/>
+      <c r="L11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="55"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="13" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18">
+      <c r="I12" s="15"/>
+      <c r="J12" s="21">
         <v>42442</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="18">
+      <c r="K12" s="20"/>
+      <c r="L12" s="21">
         <v>42442</v>
       </c>
-      <c r="M12" s="19"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="5" t="str">
         <f ca="1">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
         <v>★</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="13" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18">
+      <c r="I13" s="15"/>
+      <c r="J13" s="21">
         <v>42442</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="18">
+      <c r="K13" s="20"/>
+      <c r="L13" s="21">
         <v>42442</v>
       </c>
-      <c r="M13" s="19"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="5" t="str">
         <f t="shared" ref="N13:N59" ca="1" si="0">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
         <v>★</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="13" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18">
+      <c r="I14" s="15"/>
+      <c r="J14" s="21">
         <v>42442</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="18">
+      <c r="K14" s="20"/>
+      <c r="L14" s="21">
         <v>42442</v>
       </c>
-      <c r="M14" s="19"/>
+      <c r="M14" s="20"/>
       <c r="N14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="13" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18">
+      <c r="I15" s="15"/>
+      <c r="J15" s="21">
         <v>42442</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="18">
+      <c r="K15" s="20"/>
+      <c r="L15" s="21">
         <v>42442</v>
       </c>
-      <c r="M15" s="19"/>
+      <c r="M15" s="20"/>
       <c r="N15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="13" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18">
+      <c r="I16" s="15"/>
+      <c r="J16" s="21">
         <v>42456</v>
       </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="18">
+      <c r="K16" s="30"/>
+      <c r="L16" s="21">
         <v>42456</v>
       </c>
-      <c r="M16" s="58"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="13" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="19"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="13" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18">
+      <c r="I18" s="15"/>
+      <c r="J18" s="21">
         <v>42460</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="18">
+      <c r="K18" s="20"/>
+      <c r="L18" s="21">
         <v>42460</v>
       </c>
-      <c r="M18" s="19"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="13" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="19"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="13" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="19"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="13" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18">
+      <c r="I21" s="15"/>
+      <c r="J21" s="21">
         <v>42456</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="18">
+      <c r="K21" s="20"/>
+      <c r="L21" s="21">
         <v>42463</v>
       </c>
-      <c r="M21" s="19"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="48" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51" t="s">
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53">
+      <c r="I22" s="24"/>
+      <c r="J22" s="45">
         <v>42460</v>
       </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="53">
+      <c r="K22" s="29"/>
+      <c r="L22" s="45">
         <v>42460</v>
       </c>
-      <c r="M22" s="54"/>
+      <c r="M22" s="29"/>
       <c r="N22" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="13" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18">
+      <c r="I23" s="15"/>
+      <c r="J23" s="21">
         <v>42461</v>
       </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="18">
+      <c r="K23" s="20"/>
+      <c r="L23" s="21">
         <v>42464</v>
       </c>
-      <c r="M23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="13" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18">
+      <c r="I24" s="15"/>
+      <c r="J24" s="21">
         <v>42461</v>
       </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="18">
+      <c r="K24" s="20"/>
+      <c r="L24" s="21">
         <v>42464</v>
       </c>
-      <c r="M24" s="19"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="13" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16" t="s">
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18">
+      <c r="I25" s="15"/>
+      <c r="J25" s="21">
         <v>42461</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="18">
+      <c r="K25" s="20"/>
+      <c r="L25" s="21">
         <v>42464</v>
       </c>
-      <c r="M25" s="19"/>
+      <c r="M25" s="20"/>
       <c r="N25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="13" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18">
+      <c r="I26" s="15"/>
+      <c r="J26" s="21">
         <v>42452</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="18">
+      <c r="K26" s="20"/>
+      <c r="L26" s="21">
         <v>42452</v>
       </c>
-      <c r="M26" s="19"/>
+      <c r="M26" s="20"/>
       <c r="N26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="13" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16" t="s">
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18">
+      <c r="I27" s="15"/>
+      <c r="J27" s="21">
         <v>42461</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="18">
+      <c r="K27" s="20"/>
+      <c r="L27" s="21">
         <v>42461</v>
       </c>
-      <c r="M27" s="19"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="13" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16" t="s">
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18">
+      <c r="I28" s="15"/>
+      <c r="J28" s="21">
         <v>42461</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="18">
+      <c r="K28" s="20"/>
+      <c r="L28" s="21">
         <v>42461</v>
       </c>
-      <c r="M28" s="19"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="13" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18">
+      <c r="I29" s="15"/>
+      <c r="J29" s="21">
         <v>42465</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="18">
+      <c r="K29" s="20"/>
+      <c r="L29" s="21">
         <v>42465</v>
       </c>
-      <c r="M29" s="19"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="13" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18">
+      <c r="I30" s="15"/>
+      <c r="J30" s="21">
         <v>42465</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="18">
+      <c r="K30" s="20"/>
+      <c r="L30" s="21">
         <v>42465</v>
       </c>
-      <c r="M30" s="19"/>
+      <c r="M30" s="20"/>
       <c r="N30" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="13" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18">
+      <c r="I31" s="15"/>
+      <c r="J31" s="21">
         <v>42461</v>
       </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="18">
+      <c r="K31" s="20"/>
+      <c r="L31" s="21">
         <v>42464</v>
       </c>
-      <c r="M31" s="19"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="13" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="19"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="20"/>
       <c r="N32" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="13" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18">
+      <c r="I33" s="15"/>
+      <c r="J33" s="21">
         <v>42453</v>
       </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="18">
+      <c r="K33" s="20"/>
+      <c r="L33" s="21">
         <v>42453</v>
       </c>
-      <c r="M33" s="19"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="13" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16" t="s">
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18">
+      <c r="I34" s="15"/>
+      <c r="J34" s="21">
         <v>42462</v>
       </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="18">
+      <c r="K34" s="20"/>
+      <c r="L34" s="21">
         <v>42462</v>
       </c>
-      <c r="M34" s="19"/>
+      <c r="M34" s="20"/>
       <c r="N34" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="13" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16" t="s">
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18">
+      <c r="I35" s="15"/>
+      <c r="J35" s="21">
         <v>42462</v>
       </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="18">
+      <c r="K35" s="20"/>
+      <c r="L35" s="21">
         <v>42462</v>
       </c>
-      <c r="M35" s="19"/>
+      <c r="M35" s="20"/>
       <c r="N35" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="13" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16" t="s">
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18">
+      <c r="I36" s="15"/>
+      <c r="J36" s="21">
         <v>42462</v>
       </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="18">
+      <c r="K36" s="20"/>
+      <c r="L36" s="21">
         <v>42462</v>
       </c>
-      <c r="M36" s="19"/>
+      <c r="M36" s="20"/>
       <c r="N36" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="13" t="s">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16" t="s">
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18">
+      <c r="I37" s="15"/>
+      <c r="J37" s="21">
         <v>42462</v>
       </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="18">
+      <c r="K37" s="20"/>
+      <c r="L37" s="21">
         <v>42462</v>
       </c>
-      <c r="M37" s="19"/>
+      <c r="M37" s="20"/>
       <c r="N37" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="21" t="s">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24" t="s">
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26">
+      <c r="I38" s="50"/>
+      <c r="J38" s="51">
         <v>42462</v>
       </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="26">
+      <c r="K38" s="52"/>
+      <c r="L38" s="51">
         <v>42462</v>
       </c>
-      <c r="M38" s="27"/>
+      <c r="M38" s="52"/>
       <c r="N38" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="31" t="s">
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="34" t="s">
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="36">
+      <c r="I39" s="34"/>
+      <c r="J39" s="56">
         <v>42456</v>
       </c>
-      <c r="K39" s="37"/>
-      <c r="L39" s="36">
+      <c r="K39" s="57"/>
+      <c r="L39" s="56">
         <v>42456</v>
       </c>
-      <c r="M39" s="37"/>
+      <c r="M39" s="57"/>
       <c r="N39" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="31" t="s">
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34" t="s">
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="35"/>
-      <c r="J40" s="36">
+      <c r="I40" s="34"/>
+      <c r="J40" s="56">
         <v>42456</v>
       </c>
-      <c r="K40" s="37"/>
-      <c r="L40" s="36">
+      <c r="K40" s="57"/>
+      <c r="L40" s="56">
         <v>42456</v>
       </c>
-      <c r="M40" s="37"/>
+      <c r="M40" s="57"/>
       <c r="N40" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="31" t="s">
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="34" t="s">
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="35"/>
-      <c r="J41" s="36">
+      <c r="I41" s="34"/>
+      <c r="J41" s="56">
         <v>42456</v>
       </c>
-      <c r="K41" s="37"/>
-      <c r="L41" s="36">
+      <c r="K41" s="57"/>
+      <c r="L41" s="56">
         <v>42456</v>
       </c>
-      <c r="M41" s="37"/>
+      <c r="M41" s="57"/>
       <c r="N41" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="31" t="s">
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="34" t="s">
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="36">
+      <c r="I42" s="34"/>
+      <c r="J42" s="56">
         <v>42456</v>
       </c>
-      <c r="K42" s="37"/>
-      <c r="L42" s="36">
+      <c r="K42" s="57"/>
+      <c r="L42" s="56">
         <v>42456</v>
       </c>
-      <c r="M42" s="37"/>
+      <c r="M42" s="57"/>
       <c r="N42" s="4" t="str">
         <f ca="1">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
         <v>★</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="21" t="s">
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24" t="s">
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26">
+      <c r="I43" s="50"/>
+      <c r="J43" s="51">
         <v>42456</v>
       </c>
-      <c r="K43" s="27"/>
-      <c r="L43" s="26">
+      <c r="K43" s="52"/>
+      <c r="L43" s="51">
         <v>42456</v>
       </c>
-      <c r="M43" s="27"/>
+      <c r="M43" s="52"/>
       <c r="N43" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="13" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16" t="s">
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="18">
+      <c r="I44" s="15"/>
+      <c r="J44" s="21">
         <v>42456</v>
       </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="18">
+      <c r="K44" s="20"/>
+      <c r="L44" s="21">
         <v>42456</v>
       </c>
-      <c r="M44" s="19"/>
+      <c r="M44" s="20"/>
       <c r="N44" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="13" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="19"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="20"/>
       <c r="N45" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="16"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="13" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="19"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="20"/>
       <c r="N46" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A47" s="16"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="13" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="19"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="20"/>
       <c r="N47" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="48" t="s">
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="51" t="s">
+      <c r="F48" s="26"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="54"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A49" s="16"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="19"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="20"/>
       <c r="N49" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A50" s="16"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="19"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="20"/>
       <c r="N50" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A51" s="16"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="19"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="20"/>
       <c r="N51" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A52" s="16"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="19"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="20"/>
       <c r="N52" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53" s="16"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="19"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="20"/>
       <c r="N53" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="19"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="20"/>
       <c r="N54" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="19"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="20"/>
       <c r="N55" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="19"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="20"/>
       <c r="N56" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" s="16"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="19"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="20"/>
       <c r="N57" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58" s="16"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="19"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="20"/>
       <c r="N58" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59" s="16"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="19"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="20"/>
       <c r="N59" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2578,151 +2578,73 @@
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="A22:D38"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
@@ -2747,73 +2669,151 @@
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="A22:D38"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
